--- a/public/templates/user_import_template.xlsx
+++ b/public/templates/user_import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MID\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MID\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE19A42-1FE8-4E4D-B008-5C90850009BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C0719D-163C-4C47-B3D5-1033893F5C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -153,6 +153,27 @@
   </si>
   <si>
     <t>Tast</t>
+  </si>
+  <si>
+    <t>userbaruper</t>
+  </si>
+  <si>
+    <t>baruuserper</t>
+  </si>
+  <si>
+    <t>userbaruper@yopmail.com</t>
+  </si>
+  <si>
+    <t>baruuserper@yopmail.com</t>
+  </si>
+  <si>
+    <t>wdw</t>
+  </si>
+  <si>
+    <t>ajdj</t>
+  </si>
+  <si>
+    <t>PEREMPUAN</t>
   </si>
 </sst>
 </file>
@@ -522,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,21 +753,134 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>2021</v>
+      </c>
+      <c r="I4">
+        <v>2023</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4">
+        <v>62</v>
+      </c>
+      <c r="S4" s="1">
+        <v>55548484880</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>2021</v>
+      </c>
+      <c r="I5">
+        <v>2023</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5">
+        <v>62</v>
+      </c>
+      <c r="S5" s="1">
+        <v>584021458172</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{4A89A335-0282-4979-A029-4300CE497CD6}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{46DB6136-785D-4A1A-A146-D4F1A3E4505E}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{2FC267DE-5680-4449-BAF6-6B6AA969607E}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{D3006199-38B9-4B99-9BF4-30D51C699422}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>